--- a/time/Time Series Forecasting - Multiplicative Template B2.xlsx
+++ b/time/Time Series Forecasting - Multiplicative Template B2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\apps\UNEXT_PythonDashboard_Streamlit\time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169BB4F2-8055-427D-A07C-C518379DAF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3DEB36-FAE9-4931-AC54-7CD248FC82DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
+    <workbookView xWindow="1560" yWindow="2010" windowWidth="21600" windowHeight="11505" activeTab="8" xr2:uid="{222811F3-B945-4F38-BB77-4DEABE907094}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSeries" sheetId="11" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Step1_Percentage" sheetId="1" r:id="rId3"/>
     <sheet name="Step1_ForecastFunction" sheetId="12" r:id="rId4"/>
     <sheet name="Step2" sheetId="2" r:id="rId5"/>
-    <sheet name="Step3" sheetId="6" r:id="rId6"/>
-    <sheet name="4ModelOutput" sheetId="8" r:id="rId7"/>
-    <sheet name="Step5" sheetId="9" r:id="rId8"/>
-    <sheet name="Step6" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
+    <sheet name="Step3" sheetId="6" r:id="rId7"/>
+    <sheet name="4ModelOutput" sheetId="8" r:id="rId8"/>
+    <sheet name="Step5" sheetId="9" r:id="rId9"/>
+    <sheet name="Step6" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -363,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="106">
   <si>
     <t>Year</t>
   </si>
@@ -606,6 +607,81 @@
   </si>
   <si>
     <t>4/ Measure peformance using Mean Absolute Percentage Error (MAPE)</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1039,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -989,7 +1065,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1047,6 +1122,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1477,6 +1560,18 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86840</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>82498</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104772.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>108439.4961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,6 +2668,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>74750</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>77375</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>79750</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>81875</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>83250</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>85375</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>86750</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>87625</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>88375</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>89375</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ ">
+                  <c:v>90750</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2628,6 +2759,54 @@
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>71735.75380409068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69687.912606554324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74732.442706420727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76657.042250538056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82285.129363515778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82254.585371670677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82205.686977062796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84773.670253536198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84395.004475400798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86824.284558985717</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88744.775713874624</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88381.060477090927</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>87559.817143228327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90251.55894947199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93415.553383025908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93792.145812423027</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2862,6 +3041,425 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Step2!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>St, It</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Step2!$H$8:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="2" formatCode="0.0">
+                  <c:v>1.0702341137123745</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.0">
+                  <c:v>1.0985460420032309</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.0">
+                  <c:v>0.9780564263322884</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.0">
+                  <c:v>0.87938931297709921</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0">
+                  <c:v>1.057057057057057</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.0">
+                  <c:v>1.1190476190476191</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0">
+                  <c:v>0.93704245973645683</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.0">
+                  <c:v>0.87608069164265134</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.0">
+                  <c:v>1.0841654778887304</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.0">
+                  <c:v>1.108910891089109</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.0">
+                  <c:v>0.92867132867132862</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>0.87052341597796146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42DE-45D9-976A-A3C0435479E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Step2!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>St</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Step2!$I$8:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42DE-45D9-976A-A3C0435479E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2101835616"/>
+        <c:axId val="2101836096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2101835616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101836096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2101836096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101835616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3374,6 +3972,54 @@
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>72871.439482580012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74312.181797614176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75752.924112648339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77193.666427682503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78634.408742716667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80075.151057750831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81515.893372784994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82956.635687819158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84397.378002853322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85838.120317887486</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>87278.862632921649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88719.604947955813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90160.347262989977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91601.089578024141</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93041.831893058305</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94482.574208092468</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3593,7 +4239,318 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Step3!$I$9:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94792340491335791</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8753311401992373</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0704855495527206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1088348507133197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A28-4944-A52C-0C2176E94C91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2101841376"/>
+        <c:axId val="2102313808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2101841376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102313808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102313808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2101841376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3952,6 +4909,66 @@
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>68831.154549285435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64843.098962450968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80868.929880634605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85391.319259096999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74388.997084112081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69975.32021349424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87145.375940920683</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91892.614053011232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79946.839618938757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75107.541464537513</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93421.822001206747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98393.908846925449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85504.682153765403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80239.7627155808</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>99698.268061492825</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104895.20364083968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91062.524688592064</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85371.983966624073</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105974.71412177889</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>111396.4984347539</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4171,7 +5188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5049,6 +6066,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -6613,6 +7710,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7133,7 +8746,523 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7654,7 +9783,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8289,16 +10418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>8572</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32808</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35242</xdr:rowOff>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>130492</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8331,13 +10460,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>889399</xdr:colOff>
+      <xdr:colOff>1014415</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>136921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>465536</xdr:colOff>
+      <xdr:colOff>590552</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>172163</xdr:rowOff>
     </xdr:to>
@@ -8410,15 +10539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>564697</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
+      <xdr:colOff>503065</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>115661</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>170089</xdr:rowOff>
+      <xdr:colOff>54029</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2001</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8433,8 +10562,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2401661" y="1088571"/>
-          <a:ext cx="945696" cy="0"/>
+          <a:off x="2335227" y="1828560"/>
+          <a:ext cx="912478" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8458,6 +10587,42 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>575164</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2AD835-8E6D-4265-5F35-2D43A4090F5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8498,6 +10663,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311393</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>413970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>49090</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D799D2-8A95-7120-B29A-4140AC86809E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8899,12 +11100,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="22.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8914,3208 +11115,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8633F3-9582-4A2B-B02D-C905D9B0170C}">
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" xr:uid="{862441C2-213C-4BB0-B6A2-211E22C306B9}"/>
-    <hyperlink ref="A23" r:id="rId2" location="targetText=ARIMA%20is%20an%20acronym%20that,time%20series%20data%20with%20Python." display="https://machinelearningmastery.com/arima-for-time-series-forecasting-with-python/ - targetText=ARIMA%20is%20an%20acronym%20that,time%20series%20data%20with%20Python." xr:uid="{57A11C19-1D46-462C-8E61-7FA292ECEC78}"/>
-    <hyperlink ref="A16" r:id="rId3" xr:uid="{D78142BA-7B37-4390-915D-B928B8A51BF3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DA07D5-4067-4300-974B-E9B61B517309}">
-  <dimension ref="A2:F24"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>2015</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>2015</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>61000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>2016</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>78000</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>2016</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>72000</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>2016</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>88000</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>94000</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>2017</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>2017</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>76000</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <v>2017</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>2017</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>98000</v>
-      </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>83000</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>2018</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>79000</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>104000</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBC6AB-E59C-4374-B655-E606BB34423D}">
-  <dimension ref="A2:H24"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="H2" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="H3" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>2015</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="23">
-        <v>68000</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>2015</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="23">
-        <v>61000</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="23">
-        <v>80000</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="23">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>2016</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23">
-        <v>78000</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>2016</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="23">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>2016</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="23">
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="23">
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13">
-        <v>2017</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="23">
-        <v>80000</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14">
-        <v>2017</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <v>2017</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="23">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>2017</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="23">
-        <v>98000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="23">
-        <v>83000</v>
-      </c>
-      <c r="F17" s="1" cm="1">
-        <f t="array" ref="F17:F20">_xlfn.FORECAST.ETS(A17:A20,E5:E16,A5:A16)</f>
-        <v>87475.25087982793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
-        <v>2018</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23">
-        <v>79000</v>
-      </c>
-      <c r="F18" s="1">
-        <v>83422.271195862326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="23">
-        <v>100000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>101177.33973596767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="23">
-        <v>104000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>104733.70010151049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>2019</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" cm="1">
-        <f t="array" ref="E21:E24">_xlfn.FORECAST.ETS(A21:A24,E5:E20,A5:A20)</f>
-        <v>93299.674695530935</v>
-      </c>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>2019</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>86423.314718970956</v>
-      </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>2019</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>104351.72191687531</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>2019</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>109959.26693914826</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA9F5E-4978-4CC8-9AB3-607969F7620D}">
-  <dimension ref="A1:O24"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="29">
-        <v>1</v>
-      </c>
-      <c r="O2" s="30" t="e">
-        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="N3" s="29">
-        <v>2</v>
-      </c>
-      <c r="O3" s="30" t="e">
-        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N3)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="N4" s="29">
-        <v>3</v>
-      </c>
-      <c r="O4" s="30" t="e">
-        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="F5" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="N5" s="29">
-        <v>4</v>
-      </c>
-      <c r="O5" s="30" t="e">
-        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>68000</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>61000</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>2015</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>85000</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>2016</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>78000</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>2016</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>72000</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>2016</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>88000</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>2016</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>94000</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>2017</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>76000</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>2017</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>2017</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>98000</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>83000</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>79000</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>2018</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23">
-        <v>2018</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>104000</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4F9F03-510D-453C-A3C8-DE8A0089C8A2}">
-  <dimension ref="A1:R28"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:AB27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="32">
-        <v>71146.775747923501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N2)</f>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="32">
-        <v>1465.7942050008401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N3)</f>
-        <v>0.8753311401992373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N4)</f>
-        <v>1.0704855495527206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N5)</f>
-        <v>1.1088348507133197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="43" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>68000</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" ref="I9:I28" si="0">VLOOKUP(D9,$N$2:$O$5,2,FALSE)</f>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J9" s="2">
-        <f>E9/I9</f>
-        <v>71735.75380409068</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>61000</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ref="J10:J24" si="1">E10/I10</f>
-        <v>69687.912606554324</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>2015</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F11" s="2">
-        <f>AVERAGE(E9:E12)</f>
-        <v>73500</v>
-      </c>
-      <c r="G11" s="2">
-        <f>AVERAGE(F11:F12)</f>
-        <v>74750</v>
-      </c>
-      <c r="H11" s="3">
-        <f>E11/G11</f>
-        <v>1.0702341137123745</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="1"/>
-        <v>74732.442706420727</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>2015</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>85000</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F23" si="2">AVERAGE(E10:E13)</f>
-        <v>76000</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12:G22" si="3">AVERAGE(F12:F13)</f>
-        <v>77375</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" ref="H12:H22" si="4">E12/G12</f>
-        <v>1.0985460420032309</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="1"/>
-        <v>76657.042250538056</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>2016</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>78000</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>78750</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>79750</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.9780564263322884</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="1"/>
-        <v>82285.129363515778</v>
-      </c>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2016</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>72000</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>80750</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>81875</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.87938931297709921</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="1"/>
-        <v>82254.585371670677</v>
-      </c>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>2016</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>88000</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>83000</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>83250</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>1.057057057057057</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="1"/>
-        <v>82205.686977062796</v>
-      </c>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>2016</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>94000</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>83500</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>84000</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1190476190476191</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="1"/>
-        <v>84773.670253536198</v>
-      </c>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>84500</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>85375</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>0.93704245973645683</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="1"/>
-        <v>84395.004475400798</v>
-      </c>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>2017</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>76000</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>86250</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>86750</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.87608069164265134</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="1"/>
-        <v>86824.284558985717</v>
-      </c>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>2017</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>87250</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>87625</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0841654778887304</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="1"/>
-        <v>88744.775713874624</v>
-      </c>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>2017</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>98000</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>88000</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>88375</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
-        <v>1.108910891089109</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="1"/>
-        <v>88381.060477090927</v>
-      </c>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>83000</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>88750</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>89375</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.92867132867132862</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="1"/>
-        <v>87559.817143228327</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>2018</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>79000</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>90000</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>90750</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.87052341597796146</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="1"/>
-        <v>90251.55894947199</v>
-      </c>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>2018</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>91500</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>93415.553383025908</v>
-      </c>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>2018</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>104000</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="I24" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="1"/>
-        <v>93792.145812423027</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>2019</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>2019</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="I26" s="40">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>2019</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="I27" s="40">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>2019</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="I28" s="40">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="K28" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F7:G7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BEC6F5-AD1B-444D-8053-1B774B3C287F}">
-  <dimension ref="A2:I18"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D3E6A3-3885-4160-8830-D576A1D5B683}">
-  <dimension ref="A1:R28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="12">
-        <v>71146.775747923501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N2)</f>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="13">
-        <v>1465.7942050008401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N3)</f>
-        <v>0.8753311401992373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N4)</f>
-        <v>1.0704855495527206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N5">
-        <v>4</v>
-      </c>
-      <c r="O5">
-        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N5)</f>
-        <v>1.1088348507133197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="48"/>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="49"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>2015</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>68000</v>
-      </c>
-      <c r="I9" s="42">
-        <f t="shared" ref="I9:I24" si="0">VLOOKUP(D9,$N$2:$O$5,2,FALSE)</f>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J9" s="2">
-        <f>E9/I9</f>
-        <v>71735.75380409068</v>
-      </c>
-      <c r="K9" s="39">
-        <f t="shared" ref="K9:K24" si="1">$R$1+$R$2*A9</f>
-        <v>72612.569952924343</v>
-      </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>61000</v>
-      </c>
-      <c r="I10" s="42">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ref="J10:J24" si="2">E10/I10</f>
-        <v>69687.912606554324</v>
-      </c>
-      <c r="K10" s="39">
-        <f t="shared" si="1"/>
-        <v>74078.364157925185</v>
-      </c>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>2015</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F11" s="2">
-        <f>AVERAGE(E9:E12)</f>
-        <v>73500</v>
-      </c>
-      <c r="G11" s="2">
-        <f>AVERAGE(F11:F12)</f>
-        <v>74750</v>
-      </c>
-      <c r="H11" s="3">
-        <f>E11/G11</f>
-        <v>1.0702341137123745</v>
-      </c>
-      <c r="I11" s="42">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>74732.442706420727</v>
-      </c>
-      <c r="K11" s="39">
-        <f t="shared" si="1"/>
-        <v>75544.158362926013</v>
-      </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>2015</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>85000</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F23" si="3">AVERAGE(E10:E13)</f>
-        <v>76000</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" ref="G12:G22" si="4">AVERAGE(F12:F13)</f>
-        <v>77375</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" ref="H12:H22" si="5">E12/G12</f>
-        <v>1.0985460420032309</v>
-      </c>
-      <c r="I12" s="42">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>76657.042250538056</v>
-      </c>
-      <c r="K12" s="39">
-        <f t="shared" si="1"/>
-        <v>77009.952567926855</v>
-      </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>2016</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>78000</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="3"/>
-        <v>78750</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="4"/>
-        <v>79750</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="5"/>
-        <v>0.9780564263322884</v>
-      </c>
-      <c r="I13" s="42">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>82285.129363515778</v>
-      </c>
-      <c r="K13" s="39">
-        <f t="shared" si="1"/>
-        <v>78475.746772927698</v>
-      </c>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <v>2016</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>72000</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="3"/>
-        <v>80750</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="4"/>
-        <v>81875</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="5"/>
-        <v>0.87938931297709921</v>
-      </c>
-      <c r="I14" s="42">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>82254.585371670677</v>
-      </c>
-      <c r="K14" s="39">
-        <f t="shared" si="1"/>
-        <v>79941.54097792854</v>
-      </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>2016</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>88000</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="3"/>
-        <v>83000</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="4"/>
-        <v>83250</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="5"/>
-        <v>1.057057057057057</v>
-      </c>
-      <c r="I15" s="42">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>82205.686977062796</v>
-      </c>
-      <c r="K15" s="39">
-        <f t="shared" si="1"/>
-        <v>81407.335182929382</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>2016</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>94000</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>83500</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="4"/>
-        <v>84000</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1190476190476191</v>
-      </c>
-      <c r="I16" s="42">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>84773.670253536198</v>
-      </c>
-      <c r="K16" s="39">
-        <f t="shared" si="1"/>
-        <v>82873.129387930225</v>
-      </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17">
-        <v>2017</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>80000</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="3"/>
-        <v>84500</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="4"/>
-        <v>85375</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="5"/>
-        <v>0.93704245973645683</v>
-      </c>
-      <c r="I17" s="42">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>84395.004475400798</v>
-      </c>
-      <c r="K17" s="39">
-        <f t="shared" si="1"/>
-        <v>84338.923592931067</v>
-      </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18">
-        <v>2017</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>76000</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="3"/>
-        <v>86250</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="4"/>
-        <v>86750</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="5"/>
-        <v>0.87608069164265134</v>
-      </c>
-      <c r="I18" s="42">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>86824.284558985717</v>
-      </c>
-      <c r="K18" s="39">
-        <f t="shared" si="1"/>
-        <v>85804.717797931895</v>
-      </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19">
-        <v>2017</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>95000</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="3"/>
-        <v>87250</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="4"/>
-        <v>87625</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0841654778887304</v>
-      </c>
-      <c r="I19" s="42">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>88744.775713874624</v>
-      </c>
-      <c r="K19" s="39">
-        <f t="shared" si="1"/>
-        <v>87270.512002932737</v>
-      </c>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>2017</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>98000</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
-        <v>88000</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="4"/>
-        <v>88375</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="5"/>
-        <v>1.108910891089109</v>
-      </c>
-      <c r="I20" s="42">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>88381.060477090927</v>
-      </c>
-      <c r="K20" s="39">
-        <f t="shared" si="1"/>
-        <v>88736.30620793358</v>
-      </c>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>83000</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="3"/>
-        <v>88750</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="4"/>
-        <v>89375</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="5"/>
-        <v>0.92867132867132862</v>
-      </c>
-      <c r="I21" s="42">
-        <f t="shared" si="0"/>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="2"/>
-        <v>87559.817143228327</v>
-      </c>
-      <c r="K21" s="39">
-        <f t="shared" si="1"/>
-        <v>90202.100412934422</v>
-      </c>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22">
-        <v>2018</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>79000</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="3"/>
-        <v>90000</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="4"/>
-        <v>90750</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="5"/>
-        <v>0.87052341597796146</v>
-      </c>
-      <c r="I22" s="42">
-        <f t="shared" si="0"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="2"/>
-        <v>90251.55894947199</v>
-      </c>
-      <c r="K22" s="39">
-        <f t="shared" si="1"/>
-        <v>91667.894617935264</v>
-      </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23">
-        <v>2018</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="3"/>
-        <v>91500</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="I23" s="42">
-        <f t="shared" si="0"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="2"/>
-        <v>93415.553383025908</v>
-      </c>
-      <c r="K23" s="39">
-        <f t="shared" si="1"/>
-        <v>93133.688822936107</v>
-      </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>2018</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>104000</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="I24" s="42">
-        <f t="shared" si="0"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="2"/>
-        <v>93792.145812423027</v>
-      </c>
-      <c r="K24" s="39">
-        <f t="shared" si="1"/>
-        <v>94599.483027936949</v>
-      </c>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>2019</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="42">
-        <f t="shared" ref="I25:I28" si="6">VLOOKUP(D25,$N$2:$O$5,2,FALSE)</f>
-        <v>0.94792340491335791</v>
-      </c>
-      <c r="K25" s="39">
-        <f t="shared" ref="K25:K32" si="7">$R$1+$R$2*A25</f>
-        <v>96065.277232937777</v>
-      </c>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
-        <v>18</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26">
-        <v>2019</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="I26" s="42">
-        <f t="shared" si="6"/>
-        <v>0.8753311401992373</v>
-      </c>
-      <c r="K26" s="39">
-        <f t="shared" si="7"/>
-        <v>97531.071437938619</v>
-      </c>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27">
-        <v>2019</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="I27" s="42">
-        <f t="shared" si="6"/>
-        <v>1.0704855495527206</v>
-      </c>
-      <c r="K27" s="39">
-        <f t="shared" si="7"/>
-        <v>98996.865642939461</v>
-      </c>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>2019</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="I28" s="42">
-        <f t="shared" si="6"/>
-        <v>1.1088348507133197</v>
-      </c>
-      <c r="K28" s="39">
-        <f t="shared" si="7"/>
-        <v>100462.6598479403</v>
-      </c>
-      <c r="L28" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L6:L7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7077317-5789-49E2-9FD1-ACE8A18EC299}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -12139,13 +11143,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="38" t="e">
+      <c r="N1" s="37" t="e">
         <f>AVERAGE(N9:N24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12166,10 +11170,10 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="37">
         <f>SUM(N9:N24)</f>
         <v>0</v>
       </c>
@@ -12234,76 +11238,76 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="47"/>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="45" t="s">
+      <c r="M8" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="45" t="s">
+      <c r="N8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="34" t="e">
+      <c r="Q8" s="33" t="e">
         <f>AVERAGE(O9:O24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12321,7 +11325,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>68000</v>
       </c>
       <c r="I9" s="3">
@@ -12343,7 +11347,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="16"/>
-      <c r="Q9" s="33" t="s">
+      <c r="Q9" s="32" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12360,7 +11364,7 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>61000</v>
       </c>
       <c r="I10" s="3">
@@ -12396,7 +11400,7 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>80000</v>
       </c>
       <c r="F11" s="2">
@@ -12444,7 +11448,7 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>85000</v>
       </c>
       <c r="F12" s="2">
@@ -12492,7 +11496,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>78000</v>
       </c>
       <c r="F13" s="2">
@@ -12540,7 +11544,7 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>72000</v>
       </c>
       <c r="F14" s="2">
@@ -12588,7 +11592,7 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>88000</v>
       </c>
       <c r="F15" s="2">
@@ -12636,7 +11640,7 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>94000</v>
       </c>
       <c r="F16" s="2">
@@ -12684,7 +11688,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="45">
         <v>80000</v>
       </c>
       <c r="F17" s="2">
@@ -12732,7 +11736,7 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>76000</v>
       </c>
       <c r="F18" s="2">
@@ -12780,7 +11784,7 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="45">
         <v>95000</v>
       </c>
       <c r="F19" s="2">
@@ -12828,7 +11832,7 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>98000</v>
       </c>
       <c r="F20" s="2">
@@ -12876,7 +11880,7 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="45">
         <v>83000</v>
       </c>
       <c r="F21" s="2">
@@ -12924,7 +11928,7 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>79000</v>
       </c>
       <c r="F22" s="2">
@@ -12972,7 +11976,7 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="45">
         <v>100000</v>
       </c>
       <c r="F23" s="2">
@@ -13013,7 +12017,7 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>104000</v>
       </c>
       <c r="F24" s="2"/>
@@ -13150,4 +12154,3813 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8633F3-9582-4A2B-B02D-C905D9B0170C}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" ht="3" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A24" r:id="rId1" xr:uid="{862441C2-213C-4BB0-B6A2-211E22C306B9}"/>
+    <hyperlink ref="A23" r:id="rId2" location="targetText=ARIMA%20is%20an%20acronym%20that,time%20series%20data%20with%20Python." display="https://machinelearningmastery.com/arima-for-time-series-forecasting-with-python/ - targetText=ARIMA%20is%20an%20acronym%20that,time%20series%20data%20with%20Python." xr:uid="{57A11C19-1D46-462C-8E61-7FA292ECEC78}"/>
+    <hyperlink ref="A16" r:id="rId3" xr:uid="{D78142BA-7B37-4390-915D-B928B8A51BF3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DA07D5-4067-4300-974B-E9B61B517309}">
+  <dimension ref="A2:F24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>78000</v>
+      </c>
+      <c r="F9" s="16">
+        <f>E9/E8-1</f>
+        <v>-8.2352941176470629E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>72000</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" ref="F10:F12" si="0">E10/E9-1</f>
+        <v>-7.6923076923076872E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>88000</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>0.22222222222222232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>94000</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>6.8181818181818121E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F13" s="16">
+        <f>E13/E12-1</f>
+        <v>-0.14893617021276595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>2017</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>76000</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F16" si="1">E14/E13-1</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>95000</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>98000</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="1"/>
+        <v>3.1578947368421151E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>83000</v>
+      </c>
+      <c r="F17" s="16">
+        <f>E17/E16-1</f>
+        <v>-0.15306122448979587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>79000</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" ref="F18:F20" si="2">E18/E17-1</f>
+        <v>-4.8192771084337394E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="2"/>
+        <v>0.26582278481012667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>104000</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <f>E20*F21+E20</f>
+        <v>86840</v>
+      </c>
+      <c r="F21" s="16">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <f>E21*F22+E21</f>
+        <v>82498</v>
+      </c>
+      <c r="F22" s="16">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <f>E22*F23+E22</f>
+        <v>104772.46</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E23*F24+E23</f>
+        <v>108439.4961</v>
+      </c>
+      <c r="F24" s="16">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEBC6AB-E59C-4374-B655-E606BB34423D}">
+  <dimension ref="A2:H24"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F17" sqref="B17:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="H2" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H3" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2015</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>68000</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>2015</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>61000</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>2015</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="22">
+        <v>80000</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="22">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2016</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>78000</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2016</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>2016</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="22">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22">
+        <v>80000</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>2017</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>2017</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22">
+        <v>83000</v>
+      </c>
+      <c r="F17" s="1" cm="1">
+        <f t="array" ref="F17:F20">_xlfn.FORECAST.ETS(A17:A20,E5:E16,A5:A16)</f>
+        <v>87475.25087982793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="22">
+        <v>79000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>83422.271195862326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="22">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>101177.33973596767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="22">
+        <v>104000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>104733.70010151049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" cm="1">
+        <f t="array" ref="E21:E24">_xlfn.FORECAST.ETS(A21:A24,E5:E20,A5:A20)</f>
+        <v>93299.674695530935</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>2019</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>86423.314718970956</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>104351.72191687531</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>2019</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>109959.26693914826</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DA9F5E-4978-4CC8-9AB3-607969F7620D}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="28">
+        <v>1</v>
+      </c>
+      <c r="O2" s="29">
+        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N2)</f>
+        <v>0.94792340491335791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N3" s="28">
+        <v>2</v>
+      </c>
+      <c r="O3" s="29">
+        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N3)</f>
+        <v>0.8753311401992373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N4" s="28">
+        <v>3</v>
+      </c>
+      <c r="O4" s="29">
+        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N4)</f>
+        <v>1.0704855495527206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="N5" s="28">
+        <v>4</v>
+      </c>
+      <c r="O5" s="29">
+        <f>AVERAGEIFS($H$8:$H$23,$D$8:$D$23,N5)</f>
+        <v>1.1088348507133197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="47"/>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>2015</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>68000</v>
+      </c>
+      <c r="I8" s="3">
+        <f>VLOOKUP(D8,$N$1:$O$5,2,FALSE)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J8" s="2">
+        <f>E8/I8</f>
+        <v>71735.75380409068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>61000</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" ref="I9:I23" si="0">VLOOKUP(D9,$N$1:$O$5,2,FALSE)</f>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9:J23" si="1">E9/I9</f>
+        <v>69687.912606554324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>2015</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>AVERAGE(E8:E11)</f>
+        <v>73500</v>
+      </c>
+      <c r="G10" s="2">
+        <f>AVERAGE(F10:F11)</f>
+        <v>74750</v>
+      </c>
+      <c r="H10" s="3">
+        <f>E10/G10</f>
+        <v>1.0702341137123745</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>74732.442706420727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>85000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>AVERAGE(E9:E12)</f>
+        <v>76000</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G21" si="2">AVERAGE(F11:F12)</f>
+        <v>77375</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ref="H11:H21" si="3">E11/G11</f>
+        <v>1.0985460420032309</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>76657.042250538056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>2016</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>78000</v>
+      </c>
+      <c r="F12" s="2">
+        <f>AVERAGE(E10:E13)</f>
+        <v>78750</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>79750</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9780564263322884</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>82285.129363515778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>72000</v>
+      </c>
+      <c r="F13" s="2">
+        <f>AVERAGE(E11:E14)</f>
+        <v>80750</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>81875</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87938931297709921</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>82254.585371670677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>88000</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F11:F22" si="4">AVERAGE(E12:E15)</f>
+        <v>83000</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>83250</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.057057057057057</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>82205.686977062796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>94000</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>83500</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>84000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>84773.670253536198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
+        <v>84500</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>85375</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>0.93704245973645683</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>84395.004475400798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>76000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>86250</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>86750</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87608069164265134</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>86824.284558985717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>95000</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>87250</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>87625</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.0841654778887304</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>88744.775713874624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>98000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>88000</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>88375</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.108910891089109</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>88381.060477090927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>83000</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>88750</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>89375</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92867132867132862</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>87559.817143228327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>79000</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>90750</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>0.87052341597796146</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>90251.55894947199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>91500</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>93415.553383025908</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>104000</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>93792.145812423027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEA5098-CF2F-4754-BE5B-81E66576A015}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0.95429581729512514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="49">
+        <v>0.91068050690697078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="49">
+        <v>0.90380977666904549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="49">
+        <v>2094.0341297487457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="49">
+        <v>1</v>
+      </c>
+      <c r="C12" s="49">
+        <v>581206757.13240027</v>
+      </c>
+      <c r="D12" s="49">
+        <v>581206757.13240027</v>
+      </c>
+      <c r="E12" s="49">
+        <v>132.5449370548944</v>
+      </c>
+      <c r="F12" s="49">
+        <v>3.4299797386575819E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="49">
+        <v>13</v>
+      </c>
+      <c r="C13" s="49">
+        <v>57004726.175183617</v>
+      </c>
+      <c r="D13" s="49">
+        <v>4384978.936552586</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="50">
+        <v>14</v>
+      </c>
+      <c r="C14" s="50">
+        <v>638211483.30758393</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="49">
+        <v>71430.697167545848</v>
+      </c>
+      <c r="C17" s="49">
+        <v>1249.3373014890465</v>
+      </c>
+      <c r="D17" s="49">
+        <v>57.174869494739177</v>
+      </c>
+      <c r="E17" s="49">
+        <v>5.2860595594683017E-17</v>
+      </c>
+      <c r="F17" s="49">
+        <v>68731.668020059107</v>
+      </c>
+      <c r="G17" s="49">
+        <v>74129.726315032589</v>
+      </c>
+      <c r="H17" s="49">
+        <v>68731.668020059107</v>
+      </c>
+      <c r="I17" s="49">
+        <v>74129.726315032589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>1</v>
+      </c>
+      <c r="B18" s="50">
+        <v>1440.7423150341635</v>
+      </c>
+      <c r="C18" s="50">
+        <v>125.14247503991751</v>
+      </c>
+      <c r="D18" s="50">
+        <v>11.512816208682148</v>
+      </c>
+      <c r="E18" s="50">
+        <v>3.4299797386575938E-8</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1170.3884343657483</v>
+      </c>
+      <c r="G18" s="50">
+        <v>1711.0961957025788</v>
+      </c>
+      <c r="H18" s="50">
+        <v>1170.3884343657483</v>
+      </c>
+      <c r="I18" s="50">
+        <v>1711.0961957025788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4F9F03-510D-453C-A3C8-DE8A0089C8A2}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="31">
+        <v>71430.697167545848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N2)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="31">
+        <v>1440.7423150341635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N3)</f>
+        <v>0.8753311401992373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N4)</f>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N5)</f>
+        <v>1.1088348507133197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>68000</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" ref="I9:I28" si="0">VLOOKUP(D9,$N$2:$O$5,2,FALSE)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J9" s="2">
+        <f>E9/I9</f>
+        <v>71735.75380409068</v>
+      </c>
+      <c r="K9" s="14">
+        <f>$R$1+A9*$R$2</f>
+        <v>72871.439482580012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>2015</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>61000</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:J24" si="1">E10/I10</f>
+        <v>69687.912606554324</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" ref="K10:K41" si="2">$R$1+A10*$R$2</f>
+        <v>74312.181797614176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>AVERAGE(E9:E12)</f>
+        <v>73500</v>
+      </c>
+      <c r="G11" s="2">
+        <f>AVERAGE(F11:F12)</f>
+        <v>74750</v>
+      </c>
+      <c r="H11" s="3">
+        <f>E11/G11</f>
+        <v>1.0702341137123745</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>74732.442706420727</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="2"/>
+        <v>75752.924112648339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>85000</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F23" si="3">AVERAGE(E10:E13)</f>
+        <v>76000</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G22" si="4">AVERAGE(F12:F13)</f>
+        <v>77375</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H22" si="5">E12/G12</f>
+        <v>1.0985460420032309</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>76657.042250538056</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="2"/>
+        <v>77193.666427682503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>78000</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>78750</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>79750</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9780564263322884</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>82285.129363515778</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="2"/>
+        <v>78634.408742716667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>72000</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>80750</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>81875</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="5"/>
+        <v>0.87938931297709921</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>82254.585371670677</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="2"/>
+        <v>80075.151057750831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>88000</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>83000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>83250</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="5"/>
+        <v>1.057057057057057</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>82205.686977062796</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="2"/>
+        <v>81515.893372784994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>94000</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>83500</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>84000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>84773.670253536198</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="2"/>
+        <v>82956.635687819158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>84500</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>85375</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>0.93704245973645683</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>84395.004475400798</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="2"/>
+        <v>84397.378002853322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>76000</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>86250</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>86750</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.87608069164265134</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>86824.284558985717</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="2"/>
+        <v>85838.120317887486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>95000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>87250</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>87625</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0841654778887304</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>88744.775713874624</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="2"/>
+        <v>87278.862632921649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>98000</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>88000</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>88375</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>1.108910891089109</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>88381.060477090927</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="2"/>
+        <v>88719.604947955813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>83000</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="3"/>
+        <v>88750</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
+        <v>89375</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92867132867132862</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>87559.817143228327</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="2"/>
+        <v>90160.347262989977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>79000</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>90000</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="4"/>
+        <v>90750</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.87052341597796146</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>90251.55894947199</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="2"/>
+        <v>91601.089578024141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>91500</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>93415.553383025908</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="2"/>
+        <v>93041.831893058305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>104000</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>93792.145812423027</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="2"/>
+        <v>94482.574208092468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2019</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="39">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="2"/>
+        <v>95923.316523126632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="39">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="2"/>
+        <v>97364.058838160796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="39">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="2"/>
+        <v>98804.80115319496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2019</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="K28" s="14">
+        <f t="shared" si="2"/>
+        <v>100245.54346822912</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BEC6F5-AD1B-444D-8053-1B774B3C287F}">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D3E6A3-3885-4160-8830-D576A1D5B683}">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="12">
+        <v>71146.775747923501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N2)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="13">
+        <v>1465.7942050008401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N3)</f>
+        <v>0.8753311401992373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N4)</f>
+        <v>1.0704855495527206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGEIFS($H$11:$H$22,$D$11:$D$22,N5)</f>
+        <v>1.1088348507133197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="48"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>68000</v>
+      </c>
+      <c r="I9" s="41">
+        <f t="shared" ref="I9:I24" si="0">VLOOKUP(D9,$N$2:$O$5,2,FALSE)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J9" s="2">
+        <f>E9/I9</f>
+        <v>71735.75380409068</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" ref="K9:K24" si="1">$R$1+$R$2*A9</f>
+        <v>72612.569952924343</v>
+      </c>
+      <c r="L9" s="14">
+        <f>I9*K9</f>
+        <v>68831.154549285435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>2015</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>61000</v>
+      </c>
+      <c r="I10" s="41">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" ref="J10:J24" si="2">E10/I10</f>
+        <v>69687.912606554324</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="1"/>
+        <v>74078.364157925185</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" ref="L10:L28" si="3">I10*K10</f>
+        <v>64843.098962450968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>2015</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F11" s="2">
+        <f>AVERAGE(E9:E12)</f>
+        <v>73500</v>
+      </c>
+      <c r="G11" s="2">
+        <f>AVERAGE(F11:F12)</f>
+        <v>74750</v>
+      </c>
+      <c r="H11" s="3">
+        <f>E11/G11</f>
+        <v>1.0702341137123745</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>74732.442706420727</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="1"/>
+        <v>75544.158362926013</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="3"/>
+        <v>80868.929880634605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2015</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>85000</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F23" si="4">AVERAGE(E10:E13)</f>
+        <v>76000</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:G22" si="5">AVERAGE(F12:F13)</f>
+        <v>77375</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" ref="H12:H22" si="6">E12/G12</f>
+        <v>1.0985460420032309</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>76657.042250538056</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="1"/>
+        <v>77009.952567926855</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="3"/>
+        <v>85391.319259096999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>2016</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>78000</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
+        <v>78750</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="5"/>
+        <v>79750</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9780564263322884</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>82285.129363515778</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="1"/>
+        <v>78475.746772927698</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="3"/>
+        <v>74388.997084112081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>2016</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>72000</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
+        <v>80750</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="5"/>
+        <v>81875</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.87938931297709921</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>82254.585371670677</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="1"/>
+        <v>79941.54097792854</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="3"/>
+        <v>69975.32021349424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>2016</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>88000</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
+        <v>83000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="5"/>
+        <v>83250</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="6"/>
+        <v>1.057057057057057</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>82205.686977062796</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="1"/>
+        <v>81407.335182929382</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="3"/>
+        <v>87145.375940920683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2016</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>94000</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
+        <v>83500</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="5"/>
+        <v>84000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>84773.670253536198</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="1"/>
+        <v>82873.129387930225</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="3"/>
+        <v>91892.614053011232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>2017</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
+        <v>84500</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="5"/>
+        <v>85375</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.93704245973645683</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>84395.004475400798</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="1"/>
+        <v>84338.923592931067</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="3"/>
+        <v>79946.839618938757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>2017</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>76000</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
+        <v>86250</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
+        <v>86750</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.87608069164265134</v>
+      </c>
+      <c r="I18" s="41">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>86824.284558985717</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="1"/>
+        <v>85804.717797931895</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>75107.541464537513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>2017</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>95000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
+        <v>87250</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="5"/>
+        <v>87625</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0841654778887304</v>
+      </c>
+      <c r="I19" s="41">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>88744.775713874624</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" si="1"/>
+        <v>87270.512002932737</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="3"/>
+        <v>93421.822001206747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2017</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>98000</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>88000</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="5"/>
+        <v>88375</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="6"/>
+        <v>1.108910891089109</v>
+      </c>
+      <c r="I20" s="41">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>88381.060477090927</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="1"/>
+        <v>88736.30620793358</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="3"/>
+        <v>98393.908846925449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>83000</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>88750</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="5"/>
+        <v>89375</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92867132867132862</v>
+      </c>
+      <c r="I21" s="41">
+        <f t="shared" si="0"/>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>87559.817143228327</v>
+      </c>
+      <c r="K21" s="38">
+        <f t="shared" si="1"/>
+        <v>90202.100412934422</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="3"/>
+        <v>85504.682153765403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>79000</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="5"/>
+        <v>90750</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="6"/>
+        <v>0.87052341597796146</v>
+      </c>
+      <c r="I22" s="41">
+        <f t="shared" si="0"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>90251.55894947199</v>
+      </c>
+      <c r="K22" s="38">
+        <f t="shared" si="1"/>
+        <v>91667.894617935264</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="3"/>
+        <v>80239.7627155808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>91500</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="41">
+        <f t="shared" si="0"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>93415.553383025908</v>
+      </c>
+      <c r="K23" s="38">
+        <f t="shared" si="1"/>
+        <v>93133.688822936107</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>99698.268061492825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>104000</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="I24" s="41">
+        <f t="shared" si="0"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>93792.145812423027</v>
+      </c>
+      <c r="K24" s="38">
+        <f t="shared" si="1"/>
+        <v>94599.483027936949</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="3"/>
+        <v>104895.20364083968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2019</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="41">
+        <f t="shared" ref="I25:I28" si="7">VLOOKUP(D25,$N$2:$O$5,2,FALSE)</f>
+        <v>0.94792340491335791</v>
+      </c>
+      <c r="K25" s="38">
+        <f t="shared" ref="K25:K28" si="8">$R$1+$R$2*A25</f>
+        <v>96065.277232937777</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="3"/>
+        <v>91062.524688592064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2019</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="41">
+        <f t="shared" si="7"/>
+        <v>0.8753311401992373</v>
+      </c>
+      <c r="K26" s="38">
+        <f t="shared" si="8"/>
+        <v>97531.071437938619</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="3"/>
+        <v>85371.983966624073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="41">
+        <f t="shared" si="7"/>
+        <v>1.0704855495527206</v>
+      </c>
+      <c r="K27" s="38">
+        <f t="shared" si="8"/>
+        <v>98996.865642939461</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="3"/>
+        <v>105974.71412177889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2019</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="I28" s="41">
+        <f t="shared" si="7"/>
+        <v>1.1088348507133197</v>
+      </c>
+      <c r="K28" s="38">
+        <f t="shared" si="8"/>
+        <v>100462.6598479403</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="3"/>
+        <v>111396.4984347539</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>